--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_0_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_0_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.233181374804548e-05</v>
+        <v>0.009531053603840545</v>
       </c>
       <c r="I2" t="n">
-        <v>1.233181374804548e-05</v>
+        <v>0.009531053603840545</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.21515337687953</v>
+        <v>38.33475478137952</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[29.03325305520596, 75.3970536985531]</t>
+          <t>[4.809935402998946, 71.85957415976009]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.227418340008171e-05</v>
+        <v>0.02595148058490149</v>
       </c>
       <c r="O2" t="n">
-        <v>4.227418340008171e-05</v>
+        <v>0.02595148058490149</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 2.245342497160273]</t>
+          <t>[0.9622896416401172, 3.176184764890582]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.826572366692147e-07</v>
+        <v>0.0004805176601696548</v>
       </c>
       <c r="S2" t="n">
-        <v>1.826572366692147e-07</v>
+        <v>0.0004805176601696548</v>
       </c>
       <c r="T2" t="n">
-        <v>69.35849046507745</v>
+        <v>69.95547342142032</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[55.03521709540347, 83.68176383475144]</t>
+          <t>[52.39000525483122, 87.52094158800942]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.13153930669796e-12</v>
+        <v>3.209879029242302e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.13153930669796e-12</v>
+        <v>3.209879029242302e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.99169169169215</v>
+        <v>17.25635635635675</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.70228228228268</v>
+        <v>12.72334334334363</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.28110110110161</v>
+        <v>21.78936936936987</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.294202366312728e-05</v>
+        <v>0.0001340261053276448</v>
       </c>
       <c r="I3" t="n">
-        <v>5.294202366312728e-05</v>
+        <v>0.0001340261053276448</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.72469513444265</v>
+        <v>60.93900876081536</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[23.774162173182347, 75.67522809570296]</t>
+          <t>[26.689741369811827, 95.18827615181888]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0003603238045084556</v>
+        <v>0.0008287983821138045</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0003603238045084556</v>
+        <v>0.0008287983821138045</v>
       </c>
       <c r="P3" t="n">
         <v>1.163552834662887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5849211547224247, 1.7421845146033483]</t>
+          <t>[0.5597632555945786, 1.7673424137311944]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001995259186251541</v>
+        <v>0.000336723297087671</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001995259186251541</v>
+        <v>0.000336723297087671</v>
       </c>
       <c r="T3" t="n">
-        <v>59.68501391986974</v>
+        <v>71.73828860675717</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.284462970710564, 74.08556486902891]</t>
+          <t>[52.9853716476552, 90.49120556585913]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.080815437148885e-10</v>
+        <v>9.300586967242452e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.080815437148885e-10</v>
+        <v>9.300586967242452e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>21.17703703703754</v>
+        <v>20.96518518518566</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.78356356356402</v>
+        <v>18.49263263263305</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.57051051051107</v>
+        <v>23.43773773773827</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.033677359185692e-05</v>
+        <v>2.443748184066674e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.033677359185692e-05</v>
+        <v>2.443748184066674e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.75514320069605</v>
+        <v>60.8060366848594</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.115621106870094, 74.394665294522]</t>
+          <t>[30.64485501536278, 90.96721835435602]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.378655096219489e-05</v>
+        <v>0.0001931365006131447</v>
       </c>
       <c r="O4" t="n">
-        <v>8.378655096219489e-05</v>
+        <v>0.0001931365006131447</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.5597632555945786</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 0.9874475407679633]</t>
+          <t>[0.04402632347373281, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04725353075123873</v>
+        <v>0.03405548766870359</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04725353075123873</v>
+        <v>0.03405548766870359</v>
       </c>
       <c r="T4" t="n">
-        <v>52.50436880064751</v>
+        <v>67.30447785844748</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.801442792689826, 65.2072948086052]</t>
+          <t>[51.18928199814385, 83.41967371875111]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.166315932721318e-10</v>
+        <v>8.738343382219682e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.166315932721318e-10</v>
+        <v>8.738343382219682e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>23.93473473473531</v>
+        <v>23.43773773773827</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.90548548548601</v>
+        <v>21.32576576576625</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.9639839839846</v>
+        <v>25.54970970971028</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003029888701332473</v>
+        <v>0.0007855926962417881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003029888701332473</v>
+        <v>0.0007855926962417881</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>55.71004244324136</v>
+        <v>44.00623581065069</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[24.896390846674052, 86.52369403980866]</t>
+          <t>[16.543352713407685, 71.46911890789369]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.000697541504969923</v>
+        <v>0.002332525280865916</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000697541504969923</v>
+        <v>0.002332525280865916</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3081842643161163</v>
+        <v>0.3962369112635784</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.3333421634439615, 0.9497106920761942]</t>
+          <t>[-0.2578684660604216, 1.0503422885875784]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.3384360551071528</v>
+        <v>0.2287894609238514</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3384360551071528</v>
+        <v>0.2287894609238514</v>
       </c>
       <c r="T5" t="n">
-        <v>78.61898868346539</v>
+        <v>72.41851830346411</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[61.4101521039927, 95.82782526293808]</t>
+          <t>[57.67008223108063, 87.1669543758476]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.596279078507905e-12</v>
+        <v>7.351896869067787e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>6.596279078507905e-12</v>
+        <v>7.351896869067787e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>24.71521521521581</v>
+        <v>24.10738738738793</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.06158158158211</v>
+        <v>21.42878878878928</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.3688488488495</v>
+        <v>26.78598598598658</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.425643170989034e-06</v>
+        <v>5.64921400325602e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425643170989034e-06</v>
+        <v>5.64921400325602e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>66.1446546315811</v>
+        <v>52.42286068724266</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[41.577569675694974, 90.71173958746724]</t>
+          <t>[33.78915631186774, 71.05656506261758]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.225050048876298e-06</v>
+        <v>9.741735369495075e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>2.225050048876298e-06</v>
+        <v>9.741735369495075e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08176317216550011</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.37107901213573147, 0.5346053564667317]</t>
+          <t>[-0.5408948312486928, 0.28931583997023047]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.7178167270701552</v>
+        <v>0.5447105662075939</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7178167270701552</v>
+        <v>0.5447105662075939</v>
       </c>
       <c r="T6" t="n">
-        <v>70.53084141279571</v>
+        <v>53.50040053676737</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[55.17803288585921, 85.88364993973221]</t>
+          <t>[42.01919552042839, 64.98160555310633]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.589972928987663e-12</v>
+        <v>3.649969215757665e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>5.589972928987663e-12</v>
+        <v>3.649969215757665e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>25.65179179179241</v>
+        <v>0.5151151151151296</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.77863863863921</v>
+        <v>-1.184764764764786</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.52494494494561</v>
+        <v>2.214994994995045</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.281271668984729e-06</v>
+        <v>0.001471509534348936</v>
       </c>
       <c r="I7" t="n">
-        <v>1.281271668984729e-06</v>
+        <v>0.001471509534348936</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>57.82480183388171</v>
+        <v>37.54277129114901</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.267761982968445, 84.38184168479498]</t>
+          <t>[13.720926365181484, 61.364616217116534]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.888067160670808e-05</v>
+        <v>0.00270995785604744</v>
       </c>
       <c r="O7" t="n">
-        <v>6.888067160670808e-05</v>
+        <v>0.00270995785604744</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.8553685703467711</v>
+        <v>-0.2138421425866923</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.2830528555201566, -0.4276842851733855]</t>
+          <t>[-0.9434212172942322, 0.5157369321208476]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002136444856204456</v>
+        <v>0.5579154612048596</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002136444856204456</v>
+        <v>0.5579154612048596</v>
       </c>
       <c r="T7" t="n">
-        <v>59.35387062530783</v>
+        <v>64.06274753576611</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.40946571593982, 73.29827553467585]</t>
+          <t>[50.58290684276545, 77.54258822876676]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.130118552187923e-11</v>
+        <v>2.010169808386308e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>5.130118552187923e-11</v>
+        <v>2.010169808386308e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>3.538178178178264</v>
+        <v>0.8756956956957147</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.769089089089131</v>
+        <v>-2.111971971972022</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.307267267267396</v>
+        <v>3.863363363363452</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001718989046397446</v>
+        <v>2.200730461088263e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001718989046397446</v>
+        <v>2.200730461088263e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.67999406313366</v>
+        <v>50.6159517607102</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[15.481997503013403, 77.87799062325392]</t>
+          <t>[26.256630146215613, 74.9752733752048]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.004229440699985432</v>
+        <v>0.0001305058360372424</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004229440699985432</v>
+        <v>0.0001305058360372424</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.42142130072331</v>
+        <v>-0.8931054190385392</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, -0.5912106295043857]</t>
+          <t>[-1.3333686537758478, -0.4528421843012307]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0012349078950884</v>
+        <v>0.000178449511908374</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0012349078950884</v>
+        <v>0.000178449511908374</v>
       </c>
       <c r="T8" t="n">
-        <v>68.11797027922216</v>
+        <v>59.36882684329316</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[50.03282650357467, 86.20311405486966]</t>
+          <t>[46.882452669686685, 71.85520101689963]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.388886339270812e-09</v>
+        <v>1.981970143560829e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.388886339270812e-09</v>
+        <v>1.981970143560829e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>5.879619619619763</v>
+        <v>3.6573173173174</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.445505505505568</v>
+        <v>1.854414414414455</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.313733733733958</v>
+        <v>5.460220220220345</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.25000000000035</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.473867187826386e-08</v>
+        <v>0.000363289543778289</v>
       </c>
       <c r="I9" t="n">
-        <v>4.473867187826386e-08</v>
+        <v>0.000363289543778289</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>60.29362093201357</v>
+        <v>54.19218480064631</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[39.84932732020759, 80.73791454381954]</t>
+          <t>[23.71478046739088, 84.66958913390174]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.833819672838246e-07</v>
+        <v>0.000834620176510148</v>
       </c>
       <c r="O9" t="n">
-        <v>3.833819672838246e-07</v>
+        <v>0.000834620176510148</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.723316090257464</v>
+        <v>-1.685579241565694</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.1006845771751568, -1.3459476033397717]</t>
+          <t>[-2.3648425180175416, -1.006315965113847]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.676437180885841e-12</v>
+        <v>9.261790392178781e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>6.676437180885841e-12</v>
+        <v>9.261790392178781e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>60.57366560961675</v>
+        <v>66.37962372002822</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.43572947696351, 72.71160174227]</t>
+          <t>[48.49258107683802, 84.26666636321842]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.429789868254375e-13</v>
+        <v>2.027569223628234e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>4.429789868254375e-13</v>
+        <v>2.027569223628234e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>6.65115115115125</v>
+        <v>6.594034034034141</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.194694694694774</v>
+        <v>3.9367367367368</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.107607607607726</v>
+        <v>9.251331331331484</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.25000000000035</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.567401897972225e-05</v>
+        <v>6.342040106632751e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>6.567401897972225e-05</v>
+        <v>6.342040106632751e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>56.106436385646</v>
+        <v>55.89052320668113</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[28.070508526255367, 84.14236424503663]</t>
+          <t>[31.938395800730305, 79.84265061263196]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.000211994861564424</v>
+        <v>2.481922391028846e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.000211994861564424</v>
+        <v>2.481922391028846e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.710737140693541</v>
+        <v>-1.42142130072331</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.3145267197618495, -1.106947561625233]</t>
+          <t>[-1.9497371824080805, -0.8931054190385392]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>2.254533585599461e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>2.254533585599461e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>67.56928499679213</v>
+        <v>59.38699400258037</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.206798697503345, 83.93177129608092]</t>
+          <t>[45.060432866458655, 73.71355513870209]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.195754606442279e-10</v>
+        <v>1.076465583338404e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.195754606442279e-10</v>
+        <v>1.076465583338404e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>6.602602602602698</v>
+        <v>5.560640640640731</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.272272272272335</v>
+        <v>3.493853853853908</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.93293293293306</v>
+        <v>7.627427427427554</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.25000000000035</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001055971518063248</v>
+        <v>0.0002734288872463519</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001055971518063248</v>
+        <v>0.0002734288872463519</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.53764112806966</v>
+        <v>48.41697067194163</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[19.134218998855744, 75.94106325728357]</t>
+          <t>[19.972855473379852, 76.86108587050342]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001546790636022699</v>
+        <v>0.001309224229875339</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001546790636022699</v>
+        <v>0.001309224229875339</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.698158191129618</v>
+        <v>-1.974895081535926</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.47805306409285, -0.9182633181663862]</t>
+          <t>[-2.616421509296004, -1.3333686537758473]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.886370605463377e-05</v>
+        <v>1.57370266595791e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>6.886370605463377e-05</v>
+        <v>1.57370266595791e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>62.24398103572516</v>
+        <v>62.46160690564658</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.263425494501114, 79.22453657694922]</t>
+          <t>[46.8905527737807, 78.03266103751247]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.765901507828517e-09</v>
+        <v>2.642888130566234e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>2.765901507828517e-09</v>
+        <v>2.642888130566234e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>6.554054054054149</v>
+        <v>7.725845845845971</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.544044044044094</v>
+        <v>5.216176176176258</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.564064064064203</v>
+        <v>10.23551551551568</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_0_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_0_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009531053603840545</v>
+        <v>0.0001441274766803557</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009531053603840545</v>
+        <v>0.0001441274766803557</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.33475478137952</v>
+        <v>56.60213340740639</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[4.809935402998946, 71.85957415976009]</t>
+          <t>[25.701204181312264, 87.50306263350052]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.02595148058490149</v>
+        <v>0.0006041590197942703</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02595148058490149</v>
+        <v>0.0006041590197942703</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06923720326535</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9622896416401172, 3.176184764890582]</t>
+          <t>[0.7107106503616549, 2.0440793041375045]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0004805176601696548</v>
+        <v>0.0001407307904610633</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0004805176601696548</v>
+        <v>0.0001407307904610633</v>
       </c>
       <c r="T2" t="n">
-        <v>69.95547342142032</v>
+        <v>75.74142112547146</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[52.39000525483122, 87.52094158800942]</t>
+          <t>[58.00632228465386, 93.47651996628906]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.209879029242302e-10</v>
+        <v>4.667333186603173e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.209879029242302e-10</v>
+        <v>4.667333186603173e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.25635635635675</v>
+        <v>19.98798798798843</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.72334334334363</v>
+        <v>17.27167167167205</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.78936936936987</v>
+        <v>22.70430430430481</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001340261053276448</v>
+        <v>7.466999672689489e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001340261053276448</v>
+        <v>7.466999672689489e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.93900876081536</v>
+        <v>54.503832580361</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.689741369811827, 95.18827615181888]</t>
+          <t>[28.048700891303582, 80.95896426941842]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0008287983821138045</v>
+        <v>0.0001460161681487993</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008287983821138045</v>
+        <v>0.0001460161681487993</v>
       </c>
       <c r="P3" t="n">
-        <v>1.163552834662887</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5597632555945786, 1.7673424137311944]</t>
+          <t>[0.5471843060306547, 1.553500271144502]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.000336723297087671</v>
+        <v>0.0001227472960696474</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000336723297087671</v>
+        <v>0.0001227472960696474</v>
       </c>
       <c r="T3" t="n">
-        <v>71.73828860675717</v>
+        <v>55.53850980063481</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.9853716476552, 90.49120556585913]</t>
+          <t>[41.573018199526686, 69.50400140174294]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.300586967242452e-10</v>
+        <v>3.336115828034281e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>9.300586967242452e-10</v>
+        <v>3.336115828034281e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>20.96518518518566</v>
+        <v>21.32052052052099</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.49263263263305</v>
+        <v>19.2704704704709</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.43773773773827</v>
+        <v>23.37057057057108</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.443748184066674e-05</v>
+        <v>3.0390523545476e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.443748184066674e-05</v>
+        <v>3.0390523545476e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>60.8060366848594</v>
+        <v>58.53207828298423</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[30.64485501536278, 90.96721835435602]</t>
+          <t>[31.894559086229894, 85.16959747973857]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0001931365006131447</v>
+        <v>6.051632580894584e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001931365006131447</v>
+        <v>6.051632580894584e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5597632555945786</v>
+        <v>0.5975001042863477</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.04402632347373281, 1.0755001877154244]</t>
+          <t>[0.144657919985117, 1.0503422885875784]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.03405548766870359</v>
+        <v>0.01085784866209116</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03405548766870359</v>
+        <v>0.01085784866209116</v>
       </c>
       <c r="T4" t="n">
-        <v>67.30447785844748</v>
+        <v>62.66314938157526</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[51.18928199814385, 83.41967371875111]</t>
+          <t>[48.767641313594794, 76.55865744955572]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.738343382219682e-11</v>
+        <v>9.684253399200315e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>8.738343382219682e-11</v>
+        <v>9.684253399200315e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>23.43773773773827</v>
+        <v>23.16556556556607</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.32576576576625</v>
+        <v>21.32052052052099</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.54970970971028</v>
+        <v>25.01061061061116</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007855926962417881</v>
+        <v>7.434208478596105e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007855926962417881</v>
+        <v>7.434208478596105e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>44.00623581065069</v>
+        <v>49.12213763005023</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.543352713407685, 71.46911890789369]</t>
+          <t>[27.928588265459382, 70.31568699464108]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002332525280865916</v>
+        <v>2.751772285169984e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002332525280865916</v>
+        <v>2.751772285169984e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3962369112635784</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.2578684660604216, 1.0503422885875784]</t>
+          <t>[-0.2704474156243464, 0.7107106503616549]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2287894609238514</v>
+        <v>0.370933260312027</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2287894609238514</v>
+        <v>0.370933260312027</v>
       </c>
       <c r="T5" t="n">
-        <v>72.41851830346411</v>
+        <v>52.02414279661966</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[57.67008223108063, 87.1669543758476]</t>
+          <t>[39.88850708733972, 64.15977850589961]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.351896869067787e-13</v>
+        <v>4.192401981129024e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>7.351896869067787e-13</v>
+        <v>4.192401981129024e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>24.10738738738793</v>
+        <v>24.70310310310365</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.42878878878928</v>
+        <v>22.70430430430481</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.78598598598658</v>
+        <v>26.70190190190249</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.64921400325602e-07</v>
+        <v>2.101150356925707e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>5.64921400325602e-07</v>
+        <v>2.101150356925707e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>52.42286068724266</v>
+        <v>56.99676717404584</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[33.78915631186774, 71.05656506261758]</t>
+          <t>[31.504039730928653, 82.48949461716302]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.741735369495075e-07</v>
+        <v>4.711815938240882e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>9.741735369495075e-07</v>
+        <v>4.711815938240882e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1257894956392311</v>
+        <v>-0.3647895373537695</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5408948312486928, 0.28931583997023047]</t>
+          <t>[-0.8302106712189241, 0.10063159651138509]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5447105662075939</v>
+        <v>0.1214274708489187</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5447105662075939</v>
+        <v>0.1214274708489187</v>
       </c>
       <c r="T6" t="n">
-        <v>53.50040053676737</v>
+        <v>57.35192439766029</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.01919552042839, 64.98160555310633]</t>
+          <t>[43.85008269591488, 70.8537660994057]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.649969215757665e-12</v>
+        <v>5.437250649720227e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.649969215757665e-12</v>
+        <v>5.437250649720227e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5151151151151296</v>
+        <v>1.486286286286315</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.184764764764786</v>
+        <v>-0.4100100100100228</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.214994994995045</v>
+        <v>3.382582582582653</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001471509534348936</v>
+        <v>0.000125780203052317</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001471509534348936</v>
+        <v>0.000125780203052317</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.54277129114901</v>
+        <v>66.09440376726548</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.720926365181484, 61.364616217116534]</t>
+          <t>[28.427810879534974, 103.76099665499598]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00270995785604744</v>
+        <v>0.000959676593055292</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00270995785604744</v>
+        <v>0.000959676593055292</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2138421425866923</v>
+        <v>-0.5660527303765388</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.9434212172942322, 0.5157369321208476]</t>
+          <t>[-1.1321054607530785, 8.881784197001252e-16]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5579154612048596</v>
+        <v>0.05000000044112785</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5579154612048596</v>
+        <v>0.05000000044112785</v>
       </c>
       <c r="T7" t="n">
-        <v>64.06274753576611</v>
+        <v>70.21507665443879</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.58290684276545, 77.54258822876676]</t>
+          <t>[50.08673349144392, 90.34341981743366]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.010169808386308e-12</v>
+        <v>9.326492911299056e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.010169808386308e-12</v>
+        <v>9.326492911299056e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8756956956957147</v>
+        <v>2.306306306306354</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.111971971972022</v>
+        <v>-4.884981308350689e-15</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.863363363363452</v>
+        <v>4.612612612612713</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.200730461088263e-06</v>
+        <v>0.01630821012272754</v>
       </c>
       <c r="I8" t="n">
-        <v>2.200730461088263e-06</v>
+        <v>0.01630821012272754</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.6159517607102</v>
+        <v>28.04153137968703</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[26.256630146215613, 74.9752733752048]</t>
+          <t>[2.0787968712686045, 54.004265888105465]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001305058360372424</v>
+        <v>0.03489538176400053</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001305058360372424</v>
+        <v>0.03489538176400053</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8931054190385392</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, -0.4528421843012307]</t>
+          <t>[-1.6226844937460791, -0.012578949563923025]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.000178449511908374</v>
+        <v>0.04667052418397466</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000178449511908374</v>
+        <v>0.04667052418397466</v>
       </c>
       <c r="T8" t="n">
-        <v>59.36882684329316</v>
+        <v>44.34971588034118</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.882452669686685, 71.85520101689963]</t>
+          <t>[30.783917683649463, 57.915514077032896]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.981970143560829e-12</v>
+        <v>4.219823157569635e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.981970143560829e-12</v>
+        <v>4.219823157569635e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>3.6573173173174</v>
+        <v>3.331331331331405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.854414414414455</v>
+        <v>0.05125125125125329</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.460220220220345</v>
+        <v>6.611411411411558</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5800000000004</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000363289543778289</v>
+        <v>0.02389985357077884</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000363289543778289</v>
+        <v>0.02389985357077884</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54.19218480064631</v>
+        <v>32.11766484051981</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[23.71478046739088, 84.66958913390174]</t>
+          <t>[2.6638195863772154, 61.5715100946624]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.000834620176510148</v>
+        <v>0.03326770964260839</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000834620176510148</v>
+        <v>0.03326770964260839</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.685579241565694</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.3648425180175416, -1.006315965113847]</t>
+          <t>[-2.603842559732081, -0.1383684452031546]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>9.261790392178781e-06</v>
+        <v>0.03006329857755108</v>
       </c>
       <c r="S9" t="n">
-        <v>9.261790392178781e-06</v>
+        <v>0.03006329857755108</v>
       </c>
       <c r="T9" t="n">
-        <v>66.37962372002822</v>
+        <v>72.95271428317736</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.49258107683802, 84.26666636321842]</t>
+          <t>[56.41089674999762, 89.4945318163571]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.027569223628234e-09</v>
+        <v>1.857491938039857e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.027569223628234e-09</v>
+        <v>1.857491938039857e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>6.594034034034141</v>
+        <v>5.536196196196315</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.9367367367368</v>
+        <v>0.5586986986987146</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.251331331331484</v>
+        <v>10.51369369369391</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.5800000000004</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.342040106632751e-06</v>
+        <v>1.524742979164273e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>6.342040106632751e-06</v>
+        <v>1.524742979164273e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.89052320668113</v>
+        <v>65.36143095275439</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[31.938395800730305, 79.84265061263196]</t>
+          <t>[33.69108850629145, 97.03177339921733]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.481922391028846e-05</v>
+        <v>0.0001427420695376824</v>
       </c>
       <c r="O10" t="n">
-        <v>2.481922391028846e-05</v>
+        <v>0.0001427420695376824</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.42142130072331</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9497371824080805, -0.8931054190385392]</t>
+          <t>[-1.8491055858966945, -0.792473822527155]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.254533585599461e-06</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>2.254533585599461e-06</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>59.38699400258037</v>
+        <v>68.28260311013501</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.060432866458655, 73.71355513870209]</t>
+          <t>[50.36515754464983, 86.2000486756202]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.076465583338404e-10</v>
+        <v>1.026343676713282e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.076465583338404e-10</v>
+        <v>1.026343676713282e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>5.560640640640731</v>
+        <v>5.333033033033143</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.493853853853908</v>
+        <v>3.199819819819886</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.627427427427554</v>
+        <v>7.466246246246399</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.5800000000004</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002734288872463519</v>
+        <v>0.004000834224633931</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002734288872463519</v>
+        <v>0.004000834224633931</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.41697067194163</v>
+        <v>39.79604482884422</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[19.972855473379852, 76.86108587050342]</t>
+          <t>[11.92107864470644, 67.671011012982]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001309224229875339</v>
+        <v>0.006143082549818768</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001309224229875339</v>
+        <v>0.006143082549818768</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.974895081535926</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.616421509296004, -1.3333686537758473]</t>
+          <t>[-2.6415794084238504, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.57370266595791e-07</v>
+        <v>0.0007318399841123036</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57370266595791e-07</v>
+        <v>0.0007318399841123036</v>
       </c>
       <c r="T11" t="n">
-        <v>62.46160690564658</v>
+        <v>69.88132926860844</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.8905527737807, 78.03266103751247]</t>
+          <t>[53.481135713253174, 86.28152282396371]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.642888130566234e-10</v>
+        <v>4.977729339827874e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.642888130566234e-10</v>
+        <v>4.977729339827874e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>7.725845845845971</v>
+        <v>6.856756756756898</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.216176176176258</v>
+        <v>3.047447447447509</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.23551551551568</v>
+        <v>10.66606606606629</v>
       </c>
     </row>
   </sheetData>
